--- a/output/tech_hiring_model_output.xlsx
+++ b/output/tech_hiring_model_output.xlsx
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9234972677595629</v>
+        <v>-0.3989071038251367</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8524590163934426</v>
+        <v>-0.3169398907103825</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7868852459016393</v>
+        <v>-0.2349726775956285</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.7868852459016393</v>
+        <v>-0.2131147540983606</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7759562841530055</v>
+        <v>-0.180327868852459</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.7540106951871658</v>
+        <v>-0.1497326203208557</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.7382198952879582</v>
+        <v>-0.1204188481675392</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.7384615384615385</v>
+        <v>-0.1076923076923077</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.7589743589743591</v>
+        <v>-0.1025641025641025</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7897435897435898</v>
+        <v>-0.1076923076923077</v>
       </c>
     </row>
     <row r="3">
@@ -551,34 +551,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6885245901639344</v>
+        <v>0.371584699453552</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6721311475409836</v>
+        <v>0.4153005464480873</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5573770491803278</v>
+        <v>0.5628415300546448</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5573770491803278</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5409836065573771</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5133689839572192</v>
+        <v>0.7219251336898395</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4764397905759162</v>
+        <v>0.7801047120418848</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4769230769230769</v>
+        <v>0.805128205128205</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.5128205128205128</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.5743589743589743</v>
+        <v>0.805128205128205</v>
       </c>
     </row>
     <row r="4">
@@ -588,34 +588,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4098360655737705</v>
+        <v>1.273224043715847</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3715846994535519</v>
+        <v>1.371584699453552</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1147540983606557</v>
+        <v>1.693989071038251</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1092896174863388</v>
+        <v>1.786885245901639</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.07103825136612026</v>
+        <v>1.912568306010929</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0160427807486631</v>
+        <v>2.048128342245989</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08900523560209421</v>
+        <v>2.178010471204189</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08205128205128198</v>
+        <v>2.235897435897436</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.261538461538461</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1333333333333333</v>
+        <v>2.225641025641025</v>
       </c>
     </row>
     <row r="5">
@@ -625,34 +625,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.360655737704918</v>
+        <v>0.5027322404371586</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1639344262295082</v>
+        <v>0.7650273224043717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2131147540983606</v>
+        <v>1.224043715846994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2131147540983606</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2622950819672131</v>
+        <v>1.513661202185792</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3850267379679143</v>
+        <v>1.732620320855615</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4921465968586388</v>
+        <v>1.947643979057592</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4871794871794872</v>
+        <v>2.056410256410256</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3794871794871796</v>
+        <v>2.097435897435898</v>
       </c>
       <c r="K5" t="n">
-        <v>0.194871794871795</v>
+        <v>2.051282051282052</v>
       </c>
     </row>
     <row r="6">
@@ -699,34 +699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8598750975800157</v>
+        <v>0.3950039032006245</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.858704137392662</v>
+        <v>0.4102263856362216</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8021077283372365</v>
+        <v>0.4808743169398908</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.8118479880774963</v>
+        <v>0.4318181818181819</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8121881682109765</v>
+        <v>0.3952245188880969</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8106951871657755</v>
+        <v>0.2933689839572193</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8045710833668949</v>
+        <v>0.2526178010471205</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.8197802197802199</v>
+        <v>0.1596153846153845</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.8387267904509284</v>
+        <v>0.124137931034483</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.8646153846153846</v>
+        <v>0.08153846153846153</v>
       </c>
     </row>
     <row r="8">
@@ -736,34 +736,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.73224043715847</v>
+        <v>0.5191256830601094</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6994535519125684</v>
+        <v>0.5792349726775956</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5956284153005463</v>
+        <v>0.7103825136612021</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5956284153005463</v>
+        <v>0.7486338797814208</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5792349726775956</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.5401069518716578</v>
+        <v>0.8556149732620321</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5078534031413612</v>
+        <v>0.9057591623036649</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5076923076923077</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.5435897435897435</v>
+        <v>0.9333333333333335</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.6051282051282051</v>
+        <v>0.917948717948718</v>
       </c>
     </row>
     <row r="9">
@@ -773,34 +773,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.6775956284153005</v>
+        <v>1.180327868852459</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6994535519125684</v>
+        <v>1.191256830601093</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5737704918032787</v>
+        <v>1.349726775956284</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6502732240437159</v>
+        <v>1.316939890710383</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6448087431693988</v>
+        <v>1.355191256830601</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6417112299465241</v>
+        <v>1.347593582887701</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.612565445026178</v>
+        <v>1.3717277486911</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6153846153846154</v>
+        <v>1.364102564102564</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.6410256410256411</v>
+        <v>1.379487179487179</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.6871794871794873</v>
+        <v>1.369230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -810,34 +810,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.8688524590163934</v>
+        <v>-0.2814207650273224</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8360655737704918</v>
+        <v>0.308743169398907</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.73224043715847</v>
+        <v>0.9754098360655737</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.73224043715847</v>
+        <v>1.549180327868853</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7213114754098361</v>
+        <v>1.587431693989071</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.7272727272727273</v>
+        <v>1.561497326203208</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7068062827225131</v>
+        <v>1.036649214659686</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.7102564102564103</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.7307692307692307</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.7641025641025641</v>
+        <v>0.002564102564102637</v>
       </c>
     </row>
     <row r="11">
@@ -921,34 +921,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.7677595628415301</v>
+        <v>0.2568306010928962</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7377049180327869</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6666666666666667</v>
+        <v>0.4071038251366119</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6639344262295082</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6502732240437159</v>
+        <v>0.4890710382513661</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6149732620320856</v>
+        <v>0.5347593582887701</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.5863874345549738</v>
+        <v>0.5759162303664921</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.5897435897435896</v>
+        <v>0.5897435897435896</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.6205128205128204</v>
+        <v>0.6</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6717948717948719</v>
+        <v>0.5871794871794872</v>
       </c>
     </row>
     <row r="14">
@@ -958,34 +958,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.8819672131147541</v>
+        <v>-0.353551912568306</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.819672131147541</v>
+        <v>-0.1699453551912569</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.7426229508196721</v>
+        <v>0.03442622950819672</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7420765027322404</v>
+        <v>0.1699453551912568</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7311475409836066</v>
+        <v>0.2065573770491803</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7053475935828878</v>
+        <v>0.2385026737967914</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.6832460732984293</v>
+        <v>0.1649214659685864</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.6851282051282052</v>
+        <v>0.07384615384615385</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.7082051282051283</v>
+        <v>-0.02051282051282057</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7466666666666667</v>
+        <v>-0.0297435897435898</v>
       </c>
     </row>
     <row r="15">
@@ -1032,34 +1032,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7449908925318762</v>
+        <v>0.4025500910746813</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7030965391621129</v>
+        <v>0.4699453551912569</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.581056466302368</v>
+        <v>0.6211293260473589</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.5792349726775956</v>
+        <v>0.6648451730418945</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5664845173041895</v>
+        <v>0.7194899817850638</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5347593582887701</v>
+        <v>0.766488413547237</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5008726003490401</v>
+        <v>0.8184991273996508</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.5042735042735043</v>
+        <v>0.8376068376068375</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.5401709401709401</v>
+        <v>0.8512820512820513</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.6</v>
+        <v>0.8376068376068375</v>
       </c>
     </row>
     <row r="17">
@@ -1106,34 +1106,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8928961748633879</v>
+        <v>-0.3005464480874316</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8743169398907105</v>
+        <v>-0.2721311475409836</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.8207650273224044</v>
+        <v>-0.2065573770491803</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8218579234972677</v>
+        <v>-0.1901639344262295</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8185792349726776</v>
+        <v>-0.1683060109289618</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8021390374331552</v>
+        <v>-0.1475935828877005</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.7874345549738219</v>
+        <v>-0.1267015706806282</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.7887179487179486</v>
+        <v>-0.121025641025641</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.8041025641025641</v>
+        <v>-0.115897435897436</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.8297435897435897</v>
+        <v>-0.1220512820512821</v>
       </c>
     </row>
     <row r="19">
@@ -1143,34 +1143,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.4972677595628415</v>
+        <v>1.398907103825137</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.6010928961748635</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4316939890710383</v>
+        <v>1.554644808743169</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.4316939890710383</v>
+        <v>1.612021857923498</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.4262295081967213</v>
+        <v>1.674863387978142</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3716577540106952</v>
+        <v>1.740641711229946</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3246073298429319</v>
+        <v>1.806282722513089</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.3282051282051283</v>
+        <v>1.825641025641026</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.3769230769230769</v>
+        <v>1.843589743589744</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.458974358974359</v>
+        <v>1.823076923076923</v>
       </c>
     </row>
     <row r="20">
@@ -1180,34 +1180,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.2950819672131147</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2595628415300547</v>
+        <v>1.090163934426229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03551912568306007</v>
+        <v>1.459016393442623</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0218579234972678</v>
+        <v>1.546448087431694</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06557377049180328</v>
+        <v>1.691256830601093</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1657754010695187</v>
+        <v>1.86096256684492</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2513089005235603</v>
+        <v>2.026178010471204</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2435897435897435</v>
+        <v>2.105128205128205</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1512820512820512</v>
+        <v>2.138461538461538</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.102564102564102</v>
       </c>
     </row>
     <row r="21">
@@ -1254,34 +1254,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.336976320582878</v>
+        <v>0.5009107468123862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.145719489981785</v>
+        <v>1.413479052823315</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6539162112932606</v>
+        <v>2.398907103825137</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2404371584699454</v>
+        <v>1.94672131147541</v>
       </c>
       <c r="F22" t="n">
-        <v>0.03387978142076496</v>
+        <v>1.498360655737705</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1902215431627197</v>
+        <v>0.9060351413292588</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.2388743455497382</v>
+        <v>0.6387434554973822</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.3948717948717949</v>
+        <v>0.2502564102564102</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.48997668997669</v>
+        <v>0.05827505827505822</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.594017094017094</v>
+        <v>-0.04487179487179487</v>
       </c>
     </row>
     <row r="23">
@@ -1328,34 +1328,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.551912568306011</v>
+        <v>0.3387978142076504</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.628415300546448</v>
+        <v>0.3060109289617487</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4918032786885246</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4918032786885246</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4754098360655737</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.4278074866310161</v>
+        <v>0.6684491978609625</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3821989528795811</v>
+        <v>0.7486910994764397</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.3846153846153846</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.4256410256410256</v>
+        <v>0.805128205128205</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.5025641025641026</v>
+        <v>0.7846153846153846</v>
       </c>
     </row>
     <row r="25">
@@ -1365,34 +1365,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7377049180327869</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.7213114754098361</v>
+        <v>0.3224043715846995</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6010928961748635</v>
+        <v>0.4699453551912569</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6010928961748635</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.5846994535519127</v>
+        <v>0.5628415300546448</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.5454545454545454</v>
+        <v>0.6149732620320856</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.5078534031413612</v>
+        <v>0.6701570680628273</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.5128205128205128</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.5487179487179488</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.6102564102564103</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="26">
@@ -1402,34 +1402,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.8087431693989071</v>
+        <v>0.4644808743169398</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6885245901639344</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.5464480874316939</v>
+        <v>0.7759562841530054</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5464480874316939</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.5245901639344263</v>
+        <v>0.8852459016393442</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.481283422459893</v>
+        <v>0.9465240641711229</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.4450261780104712</v>
+        <v>1.005235602094241</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.4512820512820513</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.4923076923076923</v>
+        <v>1.041025641025641</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.5589743589743589</v>
+        <v>1.025641025641026</v>
       </c>
     </row>
     <row r="27">
@@ -1439,34 +1439,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.6721311475409836</v>
+        <v>0.8060109289617488</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5601092896174864</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3633879781420765</v>
+        <v>1.193989071038251</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3688524590163935</v>
+        <v>1.251366120218579</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.3442622950819672</v>
+        <v>1.33879781420765</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2994652406417113</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.2460732984293194</v>
+        <v>1.49738219895288</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2487179487179487</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.3025641025641025</v>
+        <v>1.553846153846154</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3948717948717949</v>
+        <v>1.533333333333333</v>
       </c>
     </row>
     <row r="28">
@@ -1476,34 +1476,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.6885245901639344</v>
+        <v>0.4398907103825136</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6092896174863389</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.4398907103825137</v>
+        <v>0.7568306010928962</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4398907103825137</v>
+        <v>0.8142076502732242</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.4153005464480874</v>
+        <v>0.8961748633879782</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3609625668449198</v>
+        <v>0.981283422459893</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.3115183246073298</v>
+        <v>1.065445026178011</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3153846153846154</v>
+        <v>1.1</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.3641025641025641</v>
+        <v>1.117948717948718</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.4487179487179487</v>
+        <v>1.094871794871795</v>
       </c>
     </row>
     <row r="29">
@@ -1513,34 +1513,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.6120218579234972</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.459016393442623</v>
+        <v>1.14207650273224</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2295081967213115</v>
+        <v>1.426229508196721</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2295081967213115</v>
+        <v>1.502732240437158</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1967213114754098</v>
+        <v>1.612021857923498</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1176470588235295</v>
+        <v>1.727272727272727</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.05235602094240831</v>
+        <v>1.837696335078534</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.05641025641025638</v>
+        <v>1.887179487179487</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.1282051282051282</v>
+        <v>1.912820512820513</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.241025641025641</v>
+        <v>1.887179487179487</v>
       </c>
     </row>
     <row r="30">
@@ -1550,34 +1550,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.8442622950819673</v>
+        <v>-0.4453551912568305</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.7349726775956283</v>
+        <v>-0.319672131147541</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.6147540983606558</v>
+        <v>-0.1721311475409836</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6147540983606558</v>
+        <v>-0.133879781420765</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5983606557377049</v>
+        <v>-0.07923497267759566</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5588235294117647</v>
+        <v>-0.01336898395721929</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.5261780104712042</v>
+        <v>0.05235602094240842</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.5282051282051281</v>
+        <v>0.08461538461538462</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.5641025641025642</v>
+        <v>0.09743589743589737</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.6205128205128204</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="31">
@@ -1587,34 +1587,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.9016393442622951</v>
+        <v>-0.3005464480874318</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.8688524590163934</v>
+        <v>-0.2568306010928961</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.8087431693989071</v>
+        <v>-0.185792349726776</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.8087431693989071</v>
+        <v>-0.1693989071038252</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.8032786885245902</v>
+        <v>-0.1420765027322404</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7860962566844919</v>
+        <v>-0.1176470588235295</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.7696335078534031</v>
+        <v>-0.09424083769633508</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.7692307692307693</v>
+        <v>-0.08717948717948715</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.7846153846153846</v>
+        <v>-0.08205128205128209</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8153846153846154</v>
+        <v>-0.08717948717948715</v>
       </c>
     </row>
     <row r="32">
@@ -1624,34 +1624,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.73224043715847</v>
+        <v>-0.09562841530054648</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6885245901639344</v>
+        <v>-0.2459016393442623</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6680327868852459</v>
+        <v>-0.3128415300546448</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6707650273224044</v>
+        <v>-0.2814207650273224</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6571038251366119</v>
+        <v>-0.2349726775956285</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6310160427807486</v>
+        <v>-0.1844919786096257</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.6034031413612565</v>
+        <v>-0.1308900523560209</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.6064102564102565</v>
+        <v>-0.1051282051282052</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6346153846153846</v>
+        <v>-0.09358974358974363</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.682051282051282</v>
+        <v>-0.1038461538461539</v>
       </c>
     </row>
     <row r="33">
@@ -1698,34 +1698,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.7431693989071039</v>
+        <v>0.2313296903460838</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.668488160291439</v>
+        <v>0.331511839708561</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.5373406193078324</v>
+        <v>0.4954462659380692</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5836065573770491</v>
+        <v>0.3874316939890711</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.6055638350720318</v>
+        <v>0.3154495777446596</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.6343068696009873</v>
+        <v>0.1612505141916906</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.6353777112939416</v>
+        <v>0.1211667913238595</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.6826923076923077</v>
+        <v>-0.003205128205128132</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.7230769230769231</v>
+        <v>-0.05369532428355951</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.7726495726495727</v>
+        <v>-0.1142450142450143</v>
       </c>
     </row>
     <row r="35">
@@ -1772,34 +1772,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.9398907103825137</v>
+        <v>-0.3595628415300546</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.9169398907103826</v>
+        <v>-0.3311475409836065</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.8863387978142075</v>
+        <v>-0.2918032786885246</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.8863387978142075</v>
+        <v>-0.2808743169398907</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.8819672131147541</v>
+        <v>-0.2644808743169398</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.8705882352941177</v>
+        <v>-0.2545454545454546</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.8607329842931938</v>
+        <v>-0.2450261780104711</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.8615384615384616</v>
+        <v>-0.2451282051282051</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.8717948717948717</v>
+        <v>-0.242051282051282</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.8892307692307693</v>
+        <v>-0.2461538461538462</v>
       </c>
     </row>
     <row r="37">
@@ -1809,34 +1809,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.9398907103825137</v>
+        <v>-0.4153005464480874</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.8907103825136612</v>
+        <v>-0.360655737704918</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.8415300546448088</v>
+        <v>-0.3005464480874318</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.8415300546448088</v>
+        <v>-0.2841530054644809</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.8360655737704918</v>
+        <v>-0.2622950819672131</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.8181818181818181</v>
+        <v>-0.2406417112299465</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.806282722513089</v>
+        <v>-0.2198952879581152</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.8051282051282052</v>
+        <v>-0.2102564102564102</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.8205128205128206</v>
+        <v>-0.2051282051282052</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.841025641025641</v>
+        <v>-0.2102564102564102</v>
       </c>
     </row>
     <row r="38">
@@ -1846,34 +1846,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.7814207650273224</v>
+        <v>0.4863387978142077</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8142076502732241</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.7267759562841529</v>
+        <v>0.5846994535519127</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.7213114754098361</v>
+        <v>0.6174863387978143</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.7103825136612021</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.6844919786096257</v>
+        <v>0.679144385026738</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.6649214659685864</v>
+        <v>0.7015706806282722</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.6666666666666666</v>
+        <v>0.7025641025641026</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.6923076923076923</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.7333333333333334</v>
+        <v>0.6974358974358974</v>
       </c>
     </row>
     <row r="39">
@@ -1920,34 +1920,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.8360655737704918</v>
+        <v>-0.08743169398907108</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.7540983606557377</v>
+        <v>0.01092896174863384</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.6448087431693988</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.6448087431693988</v>
+        <v>0.1857923497267759</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.639344262295082</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.6042780748663102</v>
+        <v>0.2780748663101604</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.5759162303664921</v>
+        <v>0.3246073298429319</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.5743589743589743</v>
+        <v>0.3487179487179488</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.6051282051282051</v>
+        <v>0.3641025641025642</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.6564102564102565</v>
+        <v>0.3538461538461539</v>
       </c>
     </row>
     <row r="41">
@@ -1957,34 +1957,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.7486338797814207</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.5956284153005463</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4316939890710383</v>
+        <v>0.8907103825136611</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4371584699453552</v>
+        <v>0.9453551912568307</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4371584699453552</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.3850267379679144</v>
+        <v>1.080213903743315</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.3403141361256544</v>
+        <v>1.151832460732984</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.3435897435897436</v>
+        <v>1.184615384615385</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.3897435897435898</v>
+        <v>1.205128205128205</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.4666666666666667</v>
+        <v>1.18974358974359</v>
       </c>
     </row>
     <row r="42">
@@ -2031,34 +2031,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.6693989071038251</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.5546448087431693</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.355191256830601</v>
+        <v>0.9153005464480873</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.355191256830601</v>
+        <v>0.9781420765027323</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.3306010928961748</v>
+        <v>1.065573770491803</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2647058823529412</v>
+        <v>1.165775401069518</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.2094240837696335</v>
+        <v>1.264397905759162</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2128205128205129</v>
+        <v>1.31025641025641</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.2692307692307692</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.3666666666666667</v>
+        <v>1.307692307692308</v>
       </c>
     </row>
     <row r="44">
@@ -2105,34 +2105,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.8688524590163934</v>
+        <v>-0.4153005464480874</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.8797814207650273</v>
+        <v>-0.4153005464480874</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.825136612021858</v>
+        <v>-0.3497267759562842</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.825136612021858</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.819672131147541</v>
+        <v>-0.3114754098360656</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.8021390374331551</v>
+        <v>-0.2887700534759358</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.7853403141361257</v>
+        <v>-0.2617801047120419</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.7846153846153846</v>
+        <v>-0.2512820512820513</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.8</v>
+        <v>-0.241025641025641</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.8256410256410256</v>
+        <v>-0.2461538461538462</v>
       </c>
     </row>
     <row r="46">
@@ -2179,34 +2179,34 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.8378870673952642</v>
+        <v>0.2076502732240437</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.7595628415300546</v>
+        <v>0.302367941712204</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.6539162112932604</v>
+        <v>0.4316939890710382</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6539162112932604</v>
+        <v>0.4663023679417121</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.639344262295082</v>
+        <v>0.5154826958105646</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.6042780748663101</v>
+        <v>0.5614973262032086</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.5741710296684119</v>
+        <v>0.605584642233857</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.576068376068376</v>
+        <v>0.6205128205128205</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.6068376068376068</v>
+        <v>0.6324786324786323</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.658119658119658</v>
+        <v>0.6205128205128205</v>
       </c>
     </row>
     <row r="48">
@@ -2216,34 +2216,34 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.5109289617486339</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.6593806921675773</v>
+        <v>-0.03460837887067401</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.6366120218579234</v>
+        <v>-0.1420765027322404</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.6352459016393442</v>
+        <v>-0.1038251366120219</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.6202185792349726</v>
+        <v>-0.05327868852459016</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.5842245989304813</v>
+        <v>0.00802139037433155</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.5536649214659686</v>
+        <v>0.06675392670157079</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.5564102564102564</v>
+        <v>0.09487179487179495</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.5884615384615385</v>
+        <v>0.1064102564102565</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.6423076923076924</v>
+        <v>0.09358974358974352</v>
       </c>
     </row>
     <row r="49">
@@ -2253,34 +2253,34 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.5956284153005463</v>
+        <v>0.2240437158469946</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.6010928961748635</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5027322404371585</v>
+        <v>0.3989071038251366</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.5027322404371585</v>
+        <v>0.448087431693989</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.5081967213114754</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.4598930481283423</v>
+        <v>0.5668449197860963</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.418848167539267</v>
+        <v>0.6387434554973822</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.4205128205128206</v>
+        <v>0.6717948717948719</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.4615384615384616</v>
+        <v>0.6871794871794873</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.5333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="50">
@@ -2327,34 +2327,34 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.4153005464480874</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2185792349726776</v>
+        <v>0.9398907103825136</v>
       </c>
       <c r="D51" t="n">
-        <v>0.09289617486338805</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005464480874316979</v>
+        <v>1.349726775956284</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04918032786885246</v>
+        <v>1.497267759562842</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1550802139037433</v>
+        <v>1.679144385026738</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2408376963350786</v>
+        <v>1.848167539267016</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.928205128205128</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1384615384615385</v>
+        <v>1.958974358974359</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.01025641025641033</v>
+        <v>1.923076923076923</v>
       </c>
     </row>
     <row r="52">
@@ -2364,34 +2364,34 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.8743169398907105</v>
+        <v>-0.2677595628415301</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.8907103825136612</v>
+        <v>-0.273224043715847</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.8688524590163934</v>
+        <v>-0.2404371584699453</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.8688524590163934</v>
+        <v>-0.2295081967213115</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.8633879781420765</v>
+        <v>-0.2076502732240437</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.8502673796791443</v>
+        <v>-0.1925133689839572</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.837696335078534</v>
+        <v>-0.1780104712041884</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.8358974358974359</v>
+        <v>-0.1743589743589744</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.8512820512820514</v>
+        <v>-0.1743589743589744</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.8717948717948718</v>
+        <v>-0.1794871794871795</v>
       </c>
     </row>
     <row r="53">
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.6338797814207651</v>
+        <v>0.628415300546448</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.6612021857923497</v>
+        <v>0.6338797814207651</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.5081967213114754</v>
+        <v>0.8251366120218578</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5081967213114754</v>
+        <v>0.8743169398907104</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.4863387978142077</v>
+        <v>0.9453551912568307</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.4385026737967915</v>
+        <v>1.010695187165775</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3926701570680629</v>
+        <v>1.083769633507853</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.4</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.441025641025641</v>
+        <v>1.128205128205128</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.517948717948718</v>
+        <v>1.107692307692308</v>
       </c>
     </row>
     <row r="55">
@@ -2475,34 +2475,34 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.453551912568306</v>
+        <v>1.229508196721312</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.7103825136612021</v>
+        <v>2.120218579234973</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.7431693989071039</v>
+        <v>3.207650273224044</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.7431693989071039</v>
+        <v>4.327868852459017</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.73224043715847</v>
+        <v>4.366120218579234</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.7058823529411764</v>
+        <v>4.310160427807487</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.6806282722513088</v>
+        <v>3.209424083769634</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.682051282051282</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.7076923076923077</v>
+        <v>1.117948717948718</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.7487179487179488</v>
+        <v>1.107692307692308</v>
       </c>
     </row>
     <row r="56">
@@ -2512,34 +2512,34 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.684153005464481</v>
+        <v>0.6382513661202186</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.6535519125683059</v>
+        <v>0.7005464480874316</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5038251366120218</v>
+        <v>0.8846994535519127</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.546448087431694</v>
+        <v>0.7605563835072031</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5669398907103825</v>
+        <v>0.6725865209471766</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.5939648586707411</v>
+        <v>0.4820473644003054</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.594066317626527</v>
+        <v>0.4265270506108202</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.6440422322775264</v>
+        <v>0.2733031674208145</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.6883190883190883</v>
+        <v>0.2116809116809117</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.7435897435897435</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="57">
@@ -2549,34 +2549,34 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.7704918032786885</v>
+        <v>1.191256830601093</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.6612021857923497</v>
+        <v>1.322404371584699</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.5683060109289618</v>
+        <v>1.448087431693989</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5683060109289618</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.551912568306011</v>
+        <v>1.551912568306011</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.5133689839572192</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="H57" t="n">
-        <v>-0.4764397905759162</v>
+        <v>1.628272251308901</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.4769230769230769</v>
+        <v>1.635897435897436</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.5128205128205128</v>
+        <v>1.651282051282051</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.5743589743589743</v>
+        <v>1.641025641025641</v>
       </c>
     </row>
     <row r="58">
@@ -2697,34 +2697,34 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.825136612021858</v>
+        <v>0.06284153005464473</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.7814207650273224</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.7049180327868853</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.7049180327868853</v>
+        <v>0.2513661202185792</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6967213114754098</v>
+        <v>0.2896174863387979</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.6684491978609626</v>
+        <v>0.3262032085561498</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.6439790575916231</v>
+        <v>0.3612565445026179</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.6461538461538462</v>
+        <v>0.3717948717948719</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.6717948717948719</v>
+        <v>0.382051282051282</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.7153846153846154</v>
+        <v>0.3717948717948719</v>
       </c>
     </row>
     <row r="62">
@@ -2808,34 +2808,34 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.9180327868852459</v>
+        <v>-0.3114754098360656</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.8961748633879781</v>
+        <v>-0.2841530054644809</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.8524590163934426</v>
+        <v>-0.2295081967213115</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8579234972677596</v>
+        <v>-0.2185792349726776</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8524590163934426</v>
+        <v>-0.1967213114754098</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.839572192513369</v>
+        <v>-0.1818181818181819</v>
       </c>
       <c r="H64" t="n">
-        <v>-0.8272251308900523</v>
+        <v>-0.1675392670157068</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.8256410256410256</v>
+        <v>-0.1641025641025641</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.8358974358974359</v>
+        <v>-0.158974358974359</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.8564102564102564</v>
+        <v>-0.1641025641025641</v>
       </c>
     </row>
     <row r="65">
@@ -2845,34 +2845,34 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.7103825136612021</v>
+        <v>0.6939890710382512</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.825136612021858</v>
+        <v>1.704918032786885</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.7486338797814207</v>
+        <v>2.890710382513662</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7486338797814207</v>
+        <v>4.010928961748634</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7377049180327869</v>
+        <v>4.043715846994536</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.7112299465240641</v>
+        <v>3.994652406417112</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.6910994764397906</v>
+        <v>2.895287958115183</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.6923076923076923</v>
+        <v>1.825641025641026</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.7128205128205127</v>
+        <v>0.8102564102564104</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.7487179487179488</v>
+        <v>0.805128205128205</v>
       </c>
     </row>
     <row r="66">
@@ -2882,34 +2882,34 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.7185792349726775</v>
+        <v>0.6612021857923497</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.6202185792349726</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.4672131147540984</v>
+        <v>0.9781420765027323</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4672131147540984</v>
+        <v>1.030054644808743</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4508196721311475</v>
+        <v>1.101092896174863</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3983957219251337</v>
+        <v>1.17379679144385</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.3534031413612566</v>
+        <v>1.246073298429319</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3564102564102564</v>
+        <v>1.271794871794872</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.4025641025641025</v>
+        <v>1.28974358974359</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.4820512820512821</v>
+        <v>1.269230769230769</v>
       </c>
     </row>
     <row r="67">
@@ -2919,34 +2919,34 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.9016393442622951</v>
+        <v>-0.5628415300546448</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.8579234972677596</v>
+        <v>-0.5081967213114754</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.7923497267759563</v>
+        <v>-0.4262295081967213</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.7923497267759563</v>
+        <v>-0.4043715846994535</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.7814207650273224</v>
+        <v>-0.3715846994535519</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.7593582887700535</v>
+        <v>-0.3368983957219251</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.7382198952879582</v>
+        <v>-0.3036649214659685</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.7435897435897435</v>
+        <v>-0.2923076923076923</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.7641025641025641</v>
+        <v>-0.2871794871794872</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.7948717948717948</v>
+        <v>-0.2923076923076923</v>
       </c>
     </row>
     <row r="68">
@@ -2956,34 +2956,34 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.8306010928961748</v>
+        <v>-0.1475409836065574</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.8142076502732241</v>
+        <v>-0.1147540983606557</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.73224043715847</v>
+        <v>-0.01092896174863384</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.6885245901639344</v>
+        <v>0.06010928961748642</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.6994535519125684</v>
+        <v>0.07650273224043723</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6844919786096257</v>
+        <v>0.1016042780748663</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.7068062827225131</v>
+        <v>0.09424083769633519</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.7128205128205127</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.7333333333333334</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.7692307692307693</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="69">
@@ -3030,34 +3030,34 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.8743169398907105</v>
+        <v>0.2021857923497267</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.8688524590163934</v>
+        <v>0.2185792349726775</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.8142076502732241</v>
+        <v>0.2896174863387979</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.8142076502732241</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.8087431693989071</v>
+        <v>0.3387978142076504</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7860962566844919</v>
+        <v>0.3529411764705881</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.7696335078534031</v>
+        <v>0.3664921465968587</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.7692307692307693</v>
+        <v>0.3641025641025642</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.7846153846153846</v>
+        <v>0.3743589743589743</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.8153846153846154</v>
+        <v>0.3641025641025642</v>
       </c>
     </row>
     <row r="71">
@@ -3104,34 +3104,34 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.7923497267759563</v>
+        <v>0.3169398907103824</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.7431693989071039</v>
+        <v>0.3879781420765028</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.628415300546448</v>
+        <v>0.5300546448087431</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6338797814207651</v>
+        <v>0.5628415300546448</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.6174863387978143</v>
+        <v>0.6120218579234972</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5828877005347594</v>
+        <v>0.657754010695187</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.5497382198952879</v>
+        <v>0.7068062827225132</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.5538461538461539</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.5846153846153846</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.6410256410256411</v>
+        <v>0.7230769230769231</v>
       </c>
     </row>
     <row r="73">
@@ -3141,34 +3141,34 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.8178506375227687</v>
+        <v>0.6466302367941711</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.7905282331511839</v>
+        <v>0.6921675774134791</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.7049180327868853</v>
+        <v>0.7996357012750455</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.726775956284153</v>
+        <v>0.8069216757741349</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7158469945355191</v>
+        <v>0.8451730418943535</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6898395721925134</v>
+        <v>0.8645276292335117</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.6666666666666667</v>
+        <v>0.8865619546247817</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.6683760683760683</v>
+        <v>0.8854700854700855</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.6923076923076923</v>
+        <v>0.8957264957264959</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.7333333333333333</v>
+        <v>0.8854700854700855</v>
       </c>
     </row>
     <row r="74">
@@ -3215,34 +3215,34 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.7431693989071039</v>
+        <v>0.1420765027322405</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.7978142076502732</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.7049180327868853</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7049180327868853</v>
+        <v>0.2568306010928962</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6885245901639344</v>
+        <v>0.3005464480874316</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6577540106951871</v>
+        <v>0.336898395721925</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.6335078534031413</v>
+        <v>0.3769633507853404</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.6358974358974359</v>
+        <v>0.3897435897435897</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.7128205128205127</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="76">
@@ -3400,34 +3400,34 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.8032786885245902</v>
+        <v>0.5355191256830601</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7103825136612021</v>
+        <v>0.6502732240437159</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.6010928961748635</v>
+        <v>0.7923497267759562</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.639344262295082</v>
+        <v>0.7978142076502733</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.628415300546448</v>
+        <v>0.8469945355191257</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5935828877005347</v>
+        <v>0.8823529411764705</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.5654450261780105</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.5692307692307692</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.6</v>
+        <v>0.9384615384615385</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.6512820512820512</v>
+        <v>0.9282051282051281</v>
       </c>
     </row>
     <row r="81">
@@ -3437,34 +3437,34 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.6229508196721312</v>
+        <v>0.7513661202185792</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.7213114754098361</v>
+        <v>0.691256830601093</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.6092896174863389</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.6092896174863389</v>
+        <v>0.871584699453552</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5928961748633881</v>
+        <v>0.9262295081967213</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5561497326203209</v>
+        <v>0.9679144385026738</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.5209424083769634</v>
+        <v>1.015706806282723</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.5256410256410257</v>
+        <v>1.025641025641026</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.5589743589743589</v>
+        <v>1.041025641025641</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.617948717948718</v>
+        <v>1.025641025641026</v>
       </c>
     </row>
     <row r="82">
@@ -3474,34 +3474,34 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.6338797814207651</v>
+        <v>1.174863387978142</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.551912568306011</v>
+        <v>1.289617486338798</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.3497267759562842</v>
+        <v>1.53551912568306</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.3497267759562842</v>
+        <v>1.601092896174863</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3224043715846994</v>
+        <v>1.693989071038251</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2566844919786096</v>
+        <v>1.786096256684492</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.1989528795811518</v>
+        <v>1.87434554973822</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.2051282051282052</v>
+        <v>1.907692307692308</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.2615384615384616</v>
+        <v>1.928205128205128</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.358974358974359</v>
+        <v>1.902564102564102</v>
       </c>
     </row>
     <row r="83">
@@ -3511,34 +3511,34 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.7540983606557377</v>
+        <v>0.5054644808743168</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.5983606557377049</v>
+        <v>0.6857923497267758</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.4180327868852459</v>
+        <v>0.9071038251366119</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4180327868852459</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3934426229508197</v>
+        <v>1.049180327868853</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3342245989304813</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.2827225130890053</v>
+        <v>1.222513089005236</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2871794871794872</v>
+        <v>1.256410256410256</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.3384615384615385</v>
+        <v>1.276923076923077</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.4256410256410256</v>
+        <v>1.253846153846154</v>
       </c>
     </row>
     <row r="84">
@@ -3585,34 +3585,34 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.8415300546448088</v>
+        <v>-0.3743169398907104</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.7595628415300547</v>
+        <v>-0.2759562841530055</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.6530054644808743</v>
+        <v>-0.144808743169399</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.6530054644808743</v>
+        <v>-0.1120218579234973</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6366120218579234</v>
+        <v>-0.0601092896174863</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.6016042780748663</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.5706806282722513</v>
+        <v>0.05759162303664918</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.5743589743589743</v>
+        <v>0.08205128205128198</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.6076923076923076</v>
+        <v>0.08974358974358967</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.6589743589743589</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="86">
@@ -3631,25 +3631,25 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>3.961748633879782</v>
+        <v>5.360655737704918</v>
       </c>
       <c r="F86" t="n">
-        <v>1.584699453551912</v>
+        <v>2.532786885245902</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4171122994652405</v>
+        <v>1.008021390374332</v>
       </c>
       <c r="H86" t="n">
-        <v>0.217801047120419</v>
+        <v>0.7916230366492149</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1355311355311356</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.2987179487179487</v>
+        <v>0.2032051282051281</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.4586894586894587</v>
+        <v>0.04957264957264957</v>
       </c>
     </row>
     <row r="87">
@@ -3770,34 +3770,34 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.5508196721311476</v>
+        <v>0.2273224043715846</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.6644808743169399</v>
+        <v>0.1584699453551912</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5409836065573771</v>
+        <v>0.3147540983606558</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.5704918032786885</v>
+        <v>0.3311475409836065</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.551912568306011</v>
+        <v>0.3923497267759564</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5080213903743316</v>
+        <v>0.4598930481283421</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.4712041884816753</v>
+        <v>0.524607329842932</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.4738461538461539</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.5128205128205128</v>
+        <v>0.5682051282051283</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.5774358974358974</v>
+        <v>0.5517948717948717</v>
       </c>
     </row>
     <row r="91">
@@ -40494,40 +40494,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.8923076923076924</v>
       </c>
     </row>
     <row r="3">
@@ -40537,40 +40537,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3934426229508197</v>
+        <v>1.426229508196721</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09836065573770492</v>
+        <v>1.163934426229508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.524590163934426</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.557377049180328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.60655737704918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.655737704918033</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.754098360655738</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5230769230769231</v>
+        <v>1.753846153846154</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5538461538461539</v>
+        <v>1.830769230769231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4923076923076923</v>
+        <v>1.830769230769231</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4153846153846154</v>
+        <v>1.8</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3692307692307693</v>
+        <v>1.784615384615385</v>
       </c>
     </row>
     <row r="4">
@@ -40580,40 +40580,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7868852459016393</v>
+        <v>2.40983606557377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06557377049180328</v>
+        <v>1.770491803278688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9180327868852459</v>
+        <v>2.639344262295082</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9016393442622951</v>
+        <v>2.704918032786885</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8360655737704918</v>
+        <v>2.737704918032787</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9344262295081968</v>
+        <v>2.918032786885246</v>
       </c>
       <c r="H4" t="n">
-        <v>1.016393442622951</v>
+        <v>3.081967213114754</v>
       </c>
       <c r="I4" t="n">
-        <v>1.092307692307692</v>
+        <v>3.138461538461538</v>
       </c>
       <c r="J4" t="n">
-        <v>1.153846153846154</v>
+        <v>3.307692307692307</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3.261538461538461</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8461538461538461</v>
+        <v>3.215384615384616</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7538461538461538</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -40623,40 +40623,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6557377049180327</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.8852459016393442</v>
       </c>
       <c r="D5" t="n">
-        <v>1.262295081967213</v>
+        <v>2.147540983606557</v>
       </c>
       <c r="E5" t="n">
-        <v>1.245901639344262</v>
+        <v>2.262295081967213</v>
       </c>
       <c r="F5" t="n">
-        <v>1.131147540983606</v>
+        <v>2.262295081967213</v>
       </c>
       <c r="G5" t="n">
-        <v>1.262295081967213</v>
+        <v>2.508196721311475</v>
       </c>
       <c r="H5" t="n">
-        <v>1.39344262295082</v>
+        <v>2.770491803278689</v>
       </c>
       <c r="I5" t="n">
-        <v>1.492307692307692</v>
+        <v>2.907692307692308</v>
       </c>
       <c r="J5" t="n">
-        <v>1.584615384615385</v>
+        <v>3.153846153846154</v>
       </c>
       <c r="K5" t="n">
-        <v>1.384615384615385</v>
+        <v>3.107692307692308</v>
       </c>
       <c r="L5" t="n">
-        <v>1.169230769230769</v>
+        <v>3.030769230769231</v>
       </c>
       <c r="M5" t="n">
-        <v>1.030769230769231</v>
+        <v>3.015384615384615</v>
       </c>
     </row>
     <row r="6">
@@ -40709,40 +40709,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1978922716627635</v>
+        <v>1.439110070257611</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01405152224824356</v>
+        <v>1.275175644028103</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2084309133489461</v>
+        <v>1.470725995316159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2014051522248244</v>
+        <v>1.484777517564403</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1838407494145199</v>
+        <v>1.48711943793911</v>
       </c>
       <c r="G7" t="n">
-        <v>0.180327868852459</v>
+        <v>1.337090163934426</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1987704918032787</v>
+        <v>1.372950819672131</v>
       </c>
       <c r="I7" t="n">
-        <v>0.188034188034188</v>
+        <v>1.184615384615385</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1991452991452991</v>
+        <v>1.214529914529914</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1561538461538461</v>
+        <v>1.087692307692308</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1323076923076923</v>
+        <v>1.079230769230769</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1176923076923077</v>
+        <v>1.077692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -40752,40 +40752,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.540983606557377</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06557377049180328</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4262295081967213</v>
+        <v>1.688524590163935</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4098360655737705</v>
+        <v>1.721311475409836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.721311475409836</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4262295081967213</v>
+        <v>1.80327868852459</v>
       </c>
       <c r="H8" t="n">
-        <v>0.459016393442623</v>
+        <v>1.885245901639344</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4923076923076923</v>
+        <v>1.876923076923077</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5230769230769231</v>
+        <v>1.953846153846154</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4615384615384616</v>
+        <v>1.938461538461538</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3846153846153846</v>
+        <v>1.907692307692308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.907692307692308</v>
       </c>
     </row>
     <row r="9">
@@ -40795,40 +40795,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4098360655737705</v>
+        <v>2.245901639344262</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.868852459016394</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5573770491803278</v>
+        <v>2.426229508196721</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3442622950819672</v>
+        <v>2.278688524590164</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3770491803278688</v>
+        <v>2.344262295081967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3278688524590164</v>
+        <v>2.327868852459016</v>
       </c>
       <c r="H9" t="n">
-        <v>0.360655737704918</v>
+        <v>2.39344262295082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3846153846153846</v>
+        <v>2.323076923076923</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4153846153846154</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3538461538461539</v>
+        <v>2.369230769230769</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3076923076923077</v>
+        <v>2.369230769230769</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2769230769230769</v>
+        <v>2.369230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -40838,40 +40838,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.7295081967213115</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2459016393442623</v>
+        <v>2.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3114754098360656</v>
+        <v>2.59016393442623</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2459016393442623</v>
+        <v>2.557377049180328</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2786885245901639</v>
+        <v>2.614754098360656</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2923076923076923</v>
+        <v>2.515384615384615</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.015384615384615</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2692307692307692</v>
+        <v>1.007692307692308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2307692307692308</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2076923076923077</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -40967,40 +40967,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2540983606557377</v>
+        <v>1.254098360655738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09836065573770492</v>
+        <v>1.131147540983606</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3442622950819672</v>
+        <v>1.385245901639344</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3442622950819672</v>
+        <v>1.418032786885246</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.418032786885246</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3524590163934426</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3852459016393442</v>
+        <v>1.557377049180328</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4153846153846154</v>
+        <v>1.553846153846154</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4384615384615385</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3769230769230769</v>
+        <v>1.6</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3230769230769231</v>
+        <v>1.584615384615385</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2846153846153846</v>
+        <v>1.576923076923077</v>
       </c>
     </row>
     <row r="14">
@@ -41010,40 +41010,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07704918032786885</v>
+        <v>0.6</v>
       </c>
       <c r="C14" t="n">
-        <v>0.009836065573770493</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2672131147540984</v>
+        <v>0.7983606557377049</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2639344262295082</v>
+        <v>1.150819672131147</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2409836065573771</v>
+        <v>1.154098360655738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2688524590163934</v>
+        <v>1.204918032786885</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2967213114754098</v>
+        <v>1.260655737704918</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3169230769230769</v>
+        <v>1.249230769230769</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3353846153846154</v>
+        <v>0.9907692307692307</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2923076923076923</v>
+        <v>0.9815384615384616</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2476923076923077</v>
+        <v>0.9661538461538461</v>
       </c>
       <c r="M14" t="n">
-        <v>0.22</v>
+        <v>0.9630769230769231</v>
       </c>
     </row>
     <row r="15">
@@ -41096,40 +41096,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3060109289617486</v>
+        <v>1.431693989071038</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03825136612021858</v>
+        <v>1.19672131147541</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4207650273224044</v>
+        <v>1.579234972677596</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4316939890710382</v>
+        <v>1.633879781420765</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4043715846994536</v>
+        <v>1.650273224043716</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4262295081967213</v>
+        <v>1.710382513661202</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4699453551912569</v>
+        <v>1.797814207650273</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4974358974358974</v>
+        <v>1.78974358974359</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5282051282051282</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4615384615384616</v>
+        <v>1.856410256410256</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3897435897435897</v>
+        <v>1.830769230769231</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3487179487179487</v>
+        <v>1.825641025641026</v>
       </c>
     </row>
     <row r="17">
@@ -41182,40 +41182,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1344262295081967</v>
+        <v>0.7180327868852459</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003278688524590164</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1836065573770492</v>
+        <v>0.780327868852459</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1901639344262295</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.7967213114754098</v>
       </c>
       <c r="G18" t="n">
-        <v>0.180327868852459</v>
+        <v>0.8295081967213115</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2123076923076923</v>
+        <v>0.8584615384615385</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2246153846153846</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1969230769230769</v>
+        <v>0.8861538461538462</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1661538461538462</v>
+        <v>0.8738461538461538</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1476923076923077</v>
+        <v>0.8738461538461538</v>
       </c>
     </row>
     <row r="19">
@@ -41225,40 +41225,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9262295081967213</v>
+        <v>2.762295081967213</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00819672131147541</v>
+        <v>1.934426229508197</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5737704918032787</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6147540983606558</v>
+        <v>2.598360655737705</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5163934426229508</v>
+        <v>2.565573770491803</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737704918032787</v>
+        <v>2.672131147540984</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6311475409836066</v>
+        <v>2.786885245901639</v>
       </c>
       <c r="I19" t="n">
-        <v>0.676923076923077</v>
+        <v>2.761538461538461</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7153846153846154</v>
+        <v>2.869230769230769</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6230769230769231</v>
+        <v>2.846153846153846</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5307692307692308</v>
+        <v>2.815384615384616</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4692307692307692</v>
+        <v>2.807692307692307</v>
       </c>
     </row>
     <row r="20">
@@ -41268,40 +41268,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9344262295081968</v>
+        <v>2.147540983606557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07377049180327869</v>
+        <v>1.377049180327869</v>
       </c>
       <c r="D20" t="n">
-        <v>1.10655737704918</v>
+        <v>2.426229508196721</v>
       </c>
       <c r="E20" t="n">
-        <v>1.040983606557377</v>
+        <v>2.467213114754098</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9590163934426229</v>
+        <v>2.483606557377049</v>
       </c>
       <c r="G20" t="n">
-        <v>1.065573770491803</v>
+        <v>2.688524590163934</v>
       </c>
       <c r="H20" t="n">
-        <v>1.172131147540984</v>
+        <v>2.901639344262295</v>
       </c>
       <c r="I20" t="n">
-        <v>1.253846153846154</v>
+        <v>2.984615384615385</v>
       </c>
       <c r="J20" t="n">
-        <v>1.323076923076923</v>
+        <v>3.184615384615384</v>
       </c>
       <c r="K20" t="n">
-        <v>1.153846153846154</v>
+        <v>3.146153846153846</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9769230769230769</v>
+        <v>3.084615384615385</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8692307692307693</v>
+        <v>3.076923076923077</v>
       </c>
     </row>
     <row r="21">
@@ -41354,40 +41354,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2459016393442623</v>
+        <v>1.065573770491803</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.8633879781420765</v>
       </c>
       <c r="D22" t="n">
-        <v>1.726775956284153</v>
+        <v>2.573770491803279</v>
       </c>
       <c r="E22" t="n">
-        <v>1.693989071038251</v>
+        <v>3.80327868852459</v>
       </c>
       <c r="F22" t="n">
-        <v>1.540983606557377</v>
+        <v>3.819672131147541</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8633879781420765</v>
+        <v>2.081967213114754</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9508196721311475</v>
+        <v>2.254098360655738</v>
       </c>
       <c r="I22" t="n">
-        <v>0.676923076923077</v>
+        <v>1.552136752136752</v>
       </c>
       <c r="J22" t="n">
-        <v>0.7162393162393162</v>
+        <v>1.317948717948718</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467948717948718</v>
+        <v>0.9730769230769231</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3974358974358974</v>
+        <v>0.9487179487179487</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3525641025641026</v>
+        <v>0.9435897435897436</v>
       </c>
     </row>
     <row r="23">
@@ -41440,40 +41440,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7540983606557377</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5245901639344263</v>
+        <v>1.442622950819672</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5245901639344263</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4754098360655737</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5245901639344263</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5737704918032787</v>
+        <v>1.688524590163935</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6153846153846154</v>
+        <v>1.723076923076923</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6615384615384615</v>
+        <v>1.830769230769231</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5692307692307692</v>
+        <v>1.8</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4923076923076923</v>
+        <v>1.784615384615385</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4307692307692308</v>
+        <v>1.769230769230769</v>
       </c>
     </row>
     <row r="25">
@@ -41483,40 +41483,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.360655737704918</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01639344262295082</v>
+        <v>1.049180327868853</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4098360655737705</v>
+        <v>1.442622950819672</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4098360655737705</v>
+        <v>1.475409836065574</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4098360655737705</v>
+        <v>1.557377049180328</v>
       </c>
       <c r="H25" t="n">
-        <v>0.459016393442623</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4923076923076923</v>
+        <v>1.646153846153846</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5230769230769231</v>
+        <v>1.723076923076923</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4461538461538462</v>
+        <v>1.707692307692308</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3846153846153846</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.676923076923077</v>
       </c>
     </row>
     <row r="26">
@@ -41526,40 +41526,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.09836065573770492</v>
+        <v>1.360655737704918</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4754098360655737</v>
+        <v>1.754098360655738</v>
       </c>
       <c r="E26" t="n">
-        <v>0.459016393442623</v>
+        <v>1.786885245901639</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4262295081967213</v>
+        <v>1.786885245901639</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4754098360655737</v>
+        <v>1.885245901639344</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5245901639344263</v>
+        <v>1.983606557377049</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5538461538461539</v>
+        <v>1.969230769230769</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5846153846153846</v>
+        <v>2.061538461538461</v>
       </c>
       <c r="K26" t="n">
-        <v>0.5076923076923077</v>
+        <v>2.046153846153846</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4307692307692308</v>
+        <v>2.015384615384615</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3846153846153846</v>
+        <v>2.015384615384615</v>
       </c>
     </row>
     <row r="27">
@@ -41569,40 +41569,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2950819672131147</v>
+        <v>1.754098360655738</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03278688524590164</v>
+        <v>1.516393442622951</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6557377049180327</v>
+        <v>2.147540983606557</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6311475409836066</v>
+        <v>2.188524590163934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6229508196721312</v>
+        <v>2.245901639344262</v>
       </c>
       <c r="G27" t="n">
-        <v>0.639344262295082</v>
+        <v>2.319672131147541</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7049180327868853</v>
+        <v>2.450819672131148</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7538461538461538</v>
+        <v>2.461538461538462</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8</v>
+        <v>2.576923076923077</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7</v>
+        <v>2.561538461538461</v>
       </c>
       <c r="L27" t="n">
-        <v>0.5923076923076923</v>
+        <v>2.523076923076923</v>
       </c>
       <c r="M27" t="n">
-        <v>0.5230769230769231</v>
+        <v>2.515384615384615</v>
       </c>
     </row>
     <row r="28">
@@ -41612,40 +41612,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3360655737704918</v>
+        <v>1.442622950819672</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01639344262295082</v>
+        <v>1.155737704918033</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5819672131147541</v>
+        <v>1.721311475409836</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5737704918032787</v>
+        <v>1.770491803278688</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5245901639344263</v>
+        <v>1.778688524590164</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5819672131147541</v>
+        <v>1.89344262295082</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6475409836065574</v>
+        <v>2.016393442622951</v>
       </c>
       <c r="I28" t="n">
-        <v>0.6846153846153846</v>
+        <v>2.030769230769231</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7307692307692307</v>
+        <v>2.146153846153846</v>
       </c>
       <c r="K28" t="n">
-        <v>0.6384615384615384</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5384615384615384</v>
+        <v>2.084615384615385</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4769230769230769</v>
+        <v>2.076923076923077</v>
       </c>
     </row>
     <row r="29">
@@ -41655,40 +41655,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3278688524590164</v>
+        <v>1.868852459016394</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03278688524590164</v>
+        <v>1.60655737704918</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8032786885245902</v>
+        <v>2.377049180327869</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7868852459016393</v>
+        <v>2.442622950819672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7213114754098361</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8032786885245902</v>
+        <v>2.60655737704918</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8852459016393442</v>
+        <v>2.770491803278689</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9538461538461539</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2.938461538461539</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8769230769230769</v>
+        <v>2.923076923076923</v>
       </c>
       <c r="L29" t="n">
-        <v>0.7384615384615385</v>
+        <v>2.876923076923077</v>
       </c>
       <c r="M29" t="n">
-        <v>0.6615384615384615</v>
+        <v>2.861538461538462</v>
       </c>
     </row>
     <row r="30">
@@ -41698,40 +41698,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4016393442622951</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="F30" t="n">
-        <v>0.360655737704918</v>
+        <v>0.8442622950819673</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4016393442622951</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4426229508196721</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4769230769230769</v>
+        <v>1.038461538461539</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5</v>
+        <v>1.115384615384615</v>
       </c>
       <c r="K30" t="n">
-        <v>0.4384615384615385</v>
+        <v>1.1</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3692307692307693</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3307692307692308</v>
+        <v>1.076923076923077</v>
       </c>
     </row>
     <row r="31">
@@ -41741,40 +41741,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="F31" t="n">
-        <v>0.180327868852459</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.9016393442622951</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.9076923076923077</v>
       </c>
     </row>
     <row r="32">
@@ -41784,40 +41784,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1311475409836066</v>
+        <v>1.39344262295082</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09836065573770492</v>
+        <v>1.377049180327869</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.6639344262295082</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3319672131147541</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="F32" t="n">
-        <v>0.319672131147541</v>
+        <v>0.7090163934426229</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.7581967213114754</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3729508196721312</v>
+        <v>0.8278688524590164</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3961538461538461</v>
+        <v>0.8576923076923076</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4192307692307692</v>
+        <v>0.9192307692307692</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3653846153846154</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3115384615384615</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="M32" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.8884615384615384</v>
       </c>
     </row>
     <row r="33">
@@ -41870,40 +41870,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2495446265938069</v>
+        <v>1.205828779599271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03825136612021858</v>
+        <v>1.020036429872496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.482695810564663</v>
+        <v>1.468123861566484</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4735883424408014</v>
+        <v>1.506375227686703</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4316939890710382</v>
+        <v>1.51183970856102</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3620218579234973</v>
+        <v>1.204918032786885</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3989071038251366</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3405128205128205</v>
+        <v>1.030769230769231</v>
       </c>
       <c r="J34" t="n">
-        <v>0.36</v>
+        <v>1.084102564102564</v>
       </c>
       <c r="K34" t="n">
-        <v>0.2623931623931624</v>
+        <v>0.8957264957264958</v>
       </c>
       <c r="L34" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.882051282051282</v>
       </c>
       <c r="M34" t="n">
-        <v>0.1974358974358974</v>
+        <v>0.8794871794871795</v>
       </c>
     </row>
     <row r="35">
@@ -41956,40 +41956,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.6262295081967213</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01311475409836066</v>
+        <v>0.5934426229508196</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1180327868852459</v>
+        <v>0.7016393442622951</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1180327868852459</v>
+        <v>0.7114754098360656</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1049180327868852</v>
+        <v>0.7114754098360656</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1180327868852459</v>
+        <v>0.7344262295081967</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.760655737704918</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.7415384615384616</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1476923076923077</v>
+        <v>0.7630769230769231</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1292307692307692</v>
+        <v>0.76</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.7507692307692307</v>
       </c>
       <c r="M36" t="n">
-        <v>0.09538461538461539</v>
+        <v>0.7507692307692307</v>
       </c>
     </row>
     <row r="37">
@@ -41999,40 +41999,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.7377049180327869</v>
       </c>
       <c r="H37" t="n">
-        <v>0.180327868852459</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.8</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.7846153846153846</v>
       </c>
     </row>
     <row r="38">
@@ -42042,40 +42042,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.622950819672131</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2786885245901639</v>
+        <v>1.557377049180328</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2786885245901639</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2622950819672131</v>
+        <v>1.60655737704918</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2950819672131147</v>
+        <v>1.655737704918033</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.704918032786885</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.676923076923077</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3538461538461539</v>
+        <v>1.723076923076923</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.707692307692308</v>
       </c>
       <c r="L38" t="n">
-        <v>0.2615384615384616</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.692307692307692</v>
       </c>
     </row>
     <row r="39">
@@ -42128,40 +42128,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="D40" t="n">
-        <v>0.360655737704918</v>
+        <v>1.114754098360656</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.163934426229508</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3278688524590164</v>
+        <v>1.163934426229508</v>
       </c>
       <c r="G40" t="n">
-        <v>0.360655737704918</v>
+        <v>1.229508196721312</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3934426229508197</v>
+        <v>1.295081967213115</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4307692307692308</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4461538461538462</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.353846153846154</v>
       </c>
       <c r="M40" t="n">
-        <v>0.2923076923076923</v>
+        <v>1.338461538461538</v>
       </c>
     </row>
     <row r="41">
@@ -42171,40 +42171,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1639344262295082</v>
+        <v>1.409836065573771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01639344262295082</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5737704918032787</v>
+        <v>1.836065573770492</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6229508196721312</v>
+        <v>1.950819672131147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5081967213114754</v>
+        <v>1.885245901639344</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5573770491803278</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
-        <v>0.6229508196721312</v>
+        <v>2.114754098360656</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6615384615384615</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6923076923076923</v>
+        <v>2.215384615384616</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6153846153846154</v>
+        <v>2.215384615384616</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5230769230769231</v>
+        <v>2.184615384615384</v>
       </c>
       <c r="M41" t="n">
-        <v>0.4615384615384616</v>
+        <v>2.169230769230769</v>
       </c>
     </row>
     <row r="42">
@@ -42257,40 +42257,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.319672131147541</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.204918032786885</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6721311475409836</v>
+        <v>1.877049180327869</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6639344262295082</v>
+        <v>1.934426229508197</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5983606557377049</v>
+        <v>1.934426229508197</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6721311475409836</v>
+        <v>2.065573770491803</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7377049180327869</v>
+        <v>2.19672131147541</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7923076923076923</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8384615384615385</v>
+        <v>2.361538461538462</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7307692307692307</v>
+        <v>2.338461538461539</v>
       </c>
       <c r="L43" t="n">
-        <v>0.6230769230769231</v>
+        <v>2.3</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5461538461538461</v>
+        <v>2.284615384615384</v>
       </c>
     </row>
     <row r="44">
@@ -42343,40 +42343,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="D45" t="n">
-        <v>0.180327868852459</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="E45" t="n">
-        <v>0.180327868852459</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.6557377049180327</v>
       </c>
       <c r="G45" t="n">
-        <v>0.180327868852459</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L45" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="M45" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.7538461538461538</v>
       </c>
     </row>
     <row r="46">
@@ -42429,40 +42429,40 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1202185792349727</v>
+        <v>1.158469945355191</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00546448087431694</v>
+        <v>1.054644808743169</v>
       </c>
       <c r="D47" t="n">
-        <v>0.360655737704918</v>
+        <v>1.409836065573771</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3551912568306011</v>
+        <v>1.442622950819672</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3224043715846995</v>
+        <v>1.442622950819672</v>
       </c>
       <c r="G47" t="n">
-        <v>0.360655737704918</v>
+        <v>1.513661202185792</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3989071038251366</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4256410256410256</v>
+        <v>1.579487179487179</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4512820512820513</v>
+        <v>1.646153846153846</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3948717948717949</v>
+        <v>1.635897435897436</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="M47" t="n">
-        <v>0.2974358974358974</v>
+        <v>1.61025641025641</v>
       </c>
     </row>
     <row r="48">
@@ -42472,40 +42472,40 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.360655737704918</v>
+        <v>3.049180327868852</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06557377049180328</v>
+        <v>1.885245901639344</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.8319672131147541</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3729508196721312</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3401639344262295</v>
+        <v>0.8729508196721312</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3811475409836065</v>
+        <v>0.9467213114754098</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4180327868852459</v>
+        <v>1.020491803278688</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4461538461538462</v>
+        <v>1.053846153846154</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4730769230769231</v>
+        <v>1.123076923076923</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4115384615384615</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="L48" t="n">
-        <v>0.35</v>
+        <v>1.088461538461538</v>
       </c>
       <c r="M48" t="n">
-        <v>0.3115384615384615</v>
+        <v>1.084615384615385</v>
       </c>
     </row>
     <row r="49">
@@ -42515,40 +42515,40 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5737704918032787</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.9836065573770492</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5573770491803278</v>
+        <v>1.459016393442623</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.39344262295082</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.491803278688525</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5409836065573771</v>
+        <v>1.590163934426229</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5846153846153846</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6153846153846154</v>
+        <v>1.707692307692308</v>
       </c>
       <c r="K49" t="n">
-        <v>0.5384615384615384</v>
+        <v>1.692307692307692</v>
       </c>
       <c r="L49" t="n">
-        <v>0.4615384615384616</v>
+        <v>1.661538461538462</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4</v>
+        <v>1.646153846153846</v>
       </c>
     </row>
     <row r="50">
@@ -42601,40 +42601,40 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.4426229508196721</v>
+        <v>1.524590163934426</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1.114754098360656</v>
       </c>
       <c r="D51" t="n">
-        <v>1.311475409836065</v>
+        <v>2.426229508196721</v>
       </c>
       <c r="E51" t="n">
-        <v>1.032786885245902</v>
+        <v>2.278688524590164</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9344262295081968</v>
+        <v>2.278688524590164</v>
       </c>
       <c r="G51" t="n">
-        <v>1.049180327868853</v>
+        <v>2.491803278688525</v>
       </c>
       <c r="H51" t="n">
-        <v>1.163934426229508</v>
+        <v>2.721311475409836</v>
       </c>
       <c r="I51" t="n">
-        <v>1.246153846153846</v>
+        <v>2.815384615384616</v>
       </c>
       <c r="J51" t="n">
-        <v>1.307692307692308</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>1.138461538461538</v>
+        <v>2.969230769230769</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9692307692307692</v>
+        <v>2.907692307692308</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8615384615384616</v>
+        <v>2.892307692307692</v>
       </c>
     </row>
     <row r="52">
@@ -42644,40 +42644,40 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.180327868852459</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L52" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="M52" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.8153846153846154</v>
       </c>
     </row>
     <row r="53">
@@ -42730,40 +42730,40 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.5901639344262295</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5081967213114754</v>
+        <v>1.786885245901639</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5081967213114754</v>
+        <v>1.836065573770492</v>
       </c>
       <c r="F54" t="n">
-        <v>0.459016393442623</v>
+        <v>1.852459016393443</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5081967213114754</v>
+        <v>1.934426229508197</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5737704918032787</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6</v>
+        <v>2.046153846153846</v>
       </c>
       <c r="J54" t="n">
-        <v>0.6461538461538462</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5538461538461539</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4769230769230769</v>
+        <v>2.107692307692308</v>
       </c>
       <c r="M54" t="n">
-        <v>0.4153846153846154</v>
+        <v>2.092307692307692</v>
       </c>
     </row>
     <row r="55">
@@ -42773,40 +42773,40 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.032786885245902</v>
+        <v>2.639344262295082</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3442622950819672</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2622950819672131</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2622950819672131</v>
+        <v>5.311475409836065</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2459016393442623</v>
+        <v>5.311475409836065</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2622950819672131</v>
+        <v>5.360655737704918</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2950819672131147</v>
+        <v>5.426229508196721</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3230769230769231</v>
+        <v>5.153846153846154</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3384615384615385</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2923076923076923</v>
+        <v>2.123076923076923</v>
       </c>
       <c r="L55" t="n">
-        <v>0.2461538461538462</v>
+        <v>2.107692307692308</v>
       </c>
       <c r="M55" t="n">
-        <v>0.2153846153846154</v>
+        <v>2.092307692307692</v>
       </c>
     </row>
     <row r="56">
@@ -42816,40 +42816,40 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4163934426229508</v>
+        <v>1.709836065573771</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01639344262295082</v>
+        <v>1.352459016393443</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5147540983606558</v>
+        <v>1.852459016393443</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5081967213114754</v>
+        <v>1.89672131147541</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4655737704918033</v>
+        <v>1.904918032786885</v>
       </c>
       <c r="G56" t="n">
-        <v>0.4022698612862547</v>
+        <v>1.544766708701135</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4388398486759142</v>
+        <v>1.621689785624212</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3807692307692307</v>
+        <v>1.316346153846154</v>
       </c>
       <c r="J56" t="n">
-        <v>0.4028846153846154</v>
+        <v>1.376923076923077</v>
       </c>
       <c r="K56" t="n">
-        <v>0.2955465587044535</v>
+        <v>1.149797570850202</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2510121457489878</v>
+        <v>1.134412955465587</v>
       </c>
       <c r="M56" t="n">
-        <v>0.2226720647773279</v>
+        <v>1.131174089068826</v>
       </c>
     </row>
     <row r="57">
@@ -42859,40 +42859,40 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1147540983606557</v>
+        <v>2.065573770491803</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1311475409836066</v>
+        <v>2.098360655737705</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4426229508196721</v>
+        <v>2.40983606557377</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4426229508196721</v>
+        <v>2.459016393442623</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4098360655737705</v>
+        <v>2.475409836065574</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4426229508196721</v>
+        <v>2.540983606557377</v>
       </c>
       <c r="H57" t="n">
-        <v>0.4918032786885246</v>
+        <v>2.639344262295082</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5230769230769231</v>
+        <v>2.584615384615385</v>
       </c>
       <c r="J57" t="n">
-        <v>0.5538461538461539</v>
+        <v>2.661538461538461</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4923076923076923</v>
+        <v>2.661538461538461</v>
       </c>
       <c r="L57" t="n">
-        <v>0.4153846153846154</v>
+        <v>2.630769230769231</v>
       </c>
       <c r="M57" t="n">
-        <v>0.3692307692307693</v>
+        <v>2.630769230769231</v>
       </c>
     </row>
     <row r="58">
@@ -43031,40 +43031,40 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.180327868852459</v>
+        <v>1.057377049180328</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04098360655737705</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3032786885245902</v>
+        <v>1.19672131147541</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.237704918032787</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2704918032786885</v>
+        <v>1.229508196721312</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3032786885245902</v>
+        <v>1.286885245901639</v>
       </c>
       <c r="H61" t="n">
-        <v>0.3360655737704918</v>
+        <v>1.352459016393443</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3538461538461539</v>
+        <v>1.338461538461538</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3769230769230769</v>
+        <v>1.392307692307692</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3307692307692308</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2769230769230769</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="M61" t="n">
-        <v>0.2461538461538462</v>
+        <v>1.361538461538462</v>
       </c>
     </row>
     <row r="62">
@@ -43160,40 +43160,40 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L64" t="n">
-        <v>0.1384615384615385</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="M64" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.8307692307692308</v>
       </c>
     </row>
     <row r="65">
@@ -43203,40 +43203,40 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.6065573770491803</v>
+        <v>1.967213114754098</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1.426229508196721</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2622950819672131</v>
+        <v>1.688524590163935</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2622950819672131</v>
+        <v>5</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2295081967213115</v>
+        <v>4.983606557377049</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2622950819672131</v>
+        <v>5.049180327868853</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2950819672131147</v>
+        <v>5.098360655737705</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3076923076923077</v>
+        <v>4.846153846153846</v>
       </c>
       <c r="J65" t="n">
-        <v>0.3230769230769231</v>
+        <v>1.815384615384615</v>
       </c>
       <c r="K65" t="n">
-        <v>0.2923076923076923</v>
+        <v>1.815384615384615</v>
       </c>
       <c r="L65" t="n">
-        <v>0.2461538461538462</v>
+        <v>1.8</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2153846153846154</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
@@ -43246,40 +43246,40 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2622950819672131</v>
+        <v>1.622950819672131</v>
       </c>
       <c r="C66" t="n">
-        <v>0.03278688524590164</v>
+        <v>1.418032786885246</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5491803278688525</v>
+        <v>1.942622950819672</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5573770491803278</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.991803278688525</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5491803278688525</v>
+        <v>2.098360655737705</v>
       </c>
       <c r="H66" t="n">
-        <v>0.6065573770491803</v>
+        <v>2.213114754098361</v>
       </c>
       <c r="I66" t="n">
-        <v>0.6461538461538462</v>
+        <v>2.207692307692308</v>
       </c>
       <c r="J66" t="n">
-        <v>0.6846153846153846</v>
+        <v>2.315384615384616</v>
       </c>
       <c r="K66" t="n">
-        <v>0.6</v>
+        <v>2.292307692307692</v>
       </c>
       <c r="L66" t="n">
-        <v>0.5076923076923077</v>
+        <v>2.261538461538461</v>
       </c>
       <c r="M66" t="n">
-        <v>0.4461538461538462</v>
+        <v>2.253846153846154</v>
       </c>
     </row>
     <row r="67">
@@ -43289,40 +43289,40 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>0.3442622950819672</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.5901639344262295</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.7230769230769231</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L67" t="n">
-        <v>0.2</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="M67" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.7076923076923077</v>
       </c>
     </row>
     <row r="68">
@@ -43332,40 +43332,40 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2622950819672131</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.6885245901639344</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.032786885245902</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2459016393442623</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.147540983606557</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2786885245901639</v>
+        <v>1.081967213114754</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2923076923076923</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.123076923076923</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2615384615384616</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="M68" t="n">
-        <v>0.2</v>
+        <v>1.092307692307692</v>
       </c>
     </row>
     <row r="69">
@@ -43418,40 +43418,40 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.180327868852459</v>
+        <v>1.245901639344262</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1.081967213114754</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1967213114754098</v>
+        <v>1.278688524590164</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1967213114754098</v>
+        <v>1.295081967213115</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1639344262295082</v>
+        <v>1.295081967213115</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1967213114754098</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2131147540983606</v>
+        <v>1.377049180327869</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.338461538461538</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2461538461538462</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="K70" t="n">
-        <v>0.2153846153846154</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="L70" t="n">
-        <v>0.1846153846153846</v>
+        <v>1.369230769230769</v>
       </c>
       <c r="M70" t="n">
-        <v>0.1538461538461539</v>
+        <v>1.353846153846154</v>
       </c>
     </row>
     <row r="71">
@@ -43504,40 +43504,40 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2295081967213115</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1.114754098360656</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3934426229508197</v>
+        <v>1.508196721311475</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.540983606557377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3442622950819672</v>
+        <v>1.540983606557377</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.60655737704918</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4262295081967213</v>
+        <v>1.688524590163935</v>
       </c>
       <c r="I72" t="n">
-        <v>0.4461538461538462</v>
+        <v>1.676923076923077</v>
       </c>
       <c r="J72" t="n">
-        <v>0.4769230769230769</v>
+        <v>1.753846153846154</v>
       </c>
       <c r="K72" t="n">
-        <v>0.4153846153846154</v>
+        <v>1.738461538461539</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3538461538461539</v>
+        <v>1.723076923076923</v>
       </c>
       <c r="M72" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.707692307692308</v>
       </c>
     </row>
     <row r="73">
@@ -43547,40 +43547,40 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1967213114754098</v>
+        <v>1.650273224043716</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1.469945355191257</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3497267759562842</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2786885245901639</v>
+        <v>1.786885245901639</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2568306010928962</v>
+        <v>1.792349726775956</v>
       </c>
       <c r="G73" t="n">
-        <v>0.2841530054644809</v>
+        <v>1.841530054644809</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.901639344262295</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.851282051282051</v>
       </c>
       <c r="J73" t="n">
-        <v>0.3538461538461539</v>
+        <v>1.907692307692308</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.897435897435897</v>
       </c>
       <c r="L73" t="n">
-        <v>0.2615384615384616</v>
+        <v>1.882051282051282</v>
       </c>
       <c r="M73" t="n">
-        <v>0.2307692307692308</v>
+        <v>1.876923076923077</v>
       </c>
     </row>
     <row r="74">
@@ -43633,40 +43633,40 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.459016393442623</v>
+        <v>1.311475409836065</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.9016393442622951</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.213114754098361</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2950819672131147</v>
+        <v>1.229508196721312</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2786885245901639</v>
+        <v>1.245901639344262</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3114754098360656</v>
+        <v>1.295081967213115</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3442622950819672</v>
+        <v>1.360655737704918</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3692307692307693</v>
+        <v>1.353846153846154</v>
       </c>
       <c r="J75" t="n">
-        <v>0.3846153846153846</v>
+        <v>1.415384615384615</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.4</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2769230769230769</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2461538461538462</v>
+        <v>1.369230769230769</v>
       </c>
     </row>
     <row r="76">
@@ -43848,40 +43848,40 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.09836065573770492</v>
+        <v>1.426229508196721</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4918032786885246</v>
+        <v>1.836065573770492</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.770491803278688</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3278688524590164</v>
+        <v>1.770491803278688</v>
       </c>
       <c r="G80" t="n">
-        <v>0.3770491803278688</v>
+        <v>1.852459016393443</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4098360655737705</v>
+        <v>1.918032786885246</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4307692307692308</v>
+        <v>1.876923076923077</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4615384615384616</v>
+        <v>1.953846153846154</v>
       </c>
       <c r="K80" t="n">
-        <v>0.4</v>
+        <v>1.938461538461538</v>
       </c>
       <c r="L80" t="n">
-        <v>0.3384615384615385</v>
+        <v>1.923076923076923</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.923076923076923</v>
       </c>
     </row>
     <row r="81">
@@ -43891,40 +43891,40 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.6967213114754098</v>
+        <v>2.024590163934426</v>
       </c>
       <c r="C81" t="n">
-        <v>0.03278688524590164</v>
+        <v>1.426229508196721</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4016393442622951</v>
+        <v>1.80327868852459</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4016393442622951</v>
+        <v>1.844262295081967</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3688524590163935</v>
+        <v>1.852459016393443</v>
       </c>
       <c r="G81" t="n">
-        <v>0.4016393442622951</v>
+        <v>1.918032786885246</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4508196721311475</v>
+        <v>2.008196721311475</v>
       </c>
       <c r="I81" t="n">
-        <v>0.4769230769230769</v>
+        <v>1.976923076923077</v>
       </c>
       <c r="J81" t="n">
-        <v>0.5076923076923077</v>
+        <v>2.061538461538461</v>
       </c>
       <c r="K81" t="n">
-        <v>0.4384615384615385</v>
+        <v>2.038461538461538</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3769230769230769</v>
+        <v>2.023076923076923</v>
       </c>
       <c r="M81" t="n">
-        <v>0.3307692307692308</v>
+        <v>2.015384615384615</v>
       </c>
     </row>
     <row r="82">
@@ -43934,40 +43934,40 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.4262295081967213</v>
+        <v>2.213114754098361</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6721311475409836</v>
+        <v>2.491803278688525</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6721311475409836</v>
+        <v>2.557377049180328</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6065573770491803</v>
+        <v>2.557377049180328</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6721311475409836</v>
+        <v>2.688524590163934</v>
       </c>
       <c r="H82" t="n">
-        <v>0.7540983606557377</v>
+        <v>2.836065573770492</v>
       </c>
       <c r="I82" t="n">
-        <v>0.8</v>
+        <v>2.830769230769231</v>
       </c>
       <c r="J82" t="n">
-        <v>0.8461538461538461</v>
+        <v>2.953846153846154</v>
       </c>
       <c r="K82" t="n">
-        <v>0.7384615384615385</v>
+        <v>2.938461538461539</v>
       </c>
       <c r="L82" t="n">
-        <v>0.6307692307692307</v>
+        <v>2.892307692307692</v>
       </c>
       <c r="M82" t="n">
-        <v>0.5538461538461539</v>
+        <v>2.876923076923077</v>
       </c>
     </row>
     <row r="83">
@@ -43977,40 +43977,40 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1311475409836066</v>
+        <v>1.385245901639344</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1.262295081967213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6065573770491803</v>
+        <v>1.868852459016394</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5983606557377049</v>
+        <v>1.926229508196721</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5409836065573771</v>
+        <v>1.926229508196721</v>
       </c>
       <c r="G83" t="n">
-        <v>0.6065573770491803</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="H83" t="n">
-        <v>0.6721311475409836</v>
+        <v>2.172131147540984</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7153846153846154</v>
+        <v>2.184615384615384</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7615384615384615</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="K83" t="n">
-        <v>0.6615384615384615</v>
+        <v>2.276923076923077</v>
       </c>
       <c r="L83" t="n">
-        <v>0.5615384615384615</v>
+        <v>2.246153846153846</v>
       </c>
       <c r="M83" t="n">
-        <v>0.5</v>
+        <v>2.238461538461539</v>
       </c>
     </row>
     <row r="84">
@@ -44063,40 +44063,40 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1065573770491803</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="D85" t="n">
-        <v>0.360655737704918</v>
+        <v>0.8360655737704918</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3524590163934426</v>
+        <v>0.860655737704918</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.8688524590163934</v>
       </c>
       <c r="G85" t="n">
-        <v>0.360655737704918</v>
+        <v>0.9344262295081968</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4016393442622951</v>
+        <v>1.016393442622951</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4307692307692308</v>
+        <v>1.046153846153846</v>
       </c>
       <c r="J85" t="n">
-        <v>0.4538461538461538</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3923076923076923</v>
+        <v>1.092307692307692</v>
       </c>
       <c r="L85" t="n">
-        <v>0.3307692307692308</v>
+        <v>1.069230769230769</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3</v>
+        <v>1.069230769230769</v>
       </c>
     </row>
     <row r="86">
@@ -44121,25 +44121,25 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1.726775956284153</v>
+        <v>2.355191256830601</v>
       </c>
       <c r="H86" t="n">
-        <v>1.901639344262295</v>
+        <v>2.699453551912568</v>
       </c>
       <c r="I86" t="n">
-        <v>1.015384615384615</v>
+        <v>1.47948717948718</v>
       </c>
       <c r="J86" t="n">
-        <v>1.074358974358974</v>
+        <v>1.641025641025641</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6239316239316239</v>
+        <v>1.073504273504273</v>
       </c>
       <c r="L86" t="n">
-        <v>0.5299145299145299</v>
+        <v>1.041025641025641</v>
       </c>
       <c r="M86" t="n">
-        <v>0.4700854700854701</v>
+        <v>1.034188034188034</v>
       </c>
     </row>
     <row r="87">
@@ -44278,40 +44278,40 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.780327868852459</v>
+        <v>1.504918032786885</v>
       </c>
       <c r="C90" t="n">
-        <v>0.02950819672131148</v>
+        <v>0.8327868852459016</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5377049180327869</v>
+        <v>1.344262295081967</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4393442622950819</v>
+        <v>1.298360655737705</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4</v>
+        <v>1.301639344262295</v>
       </c>
       <c r="G90" t="n">
-        <v>0.4491803278688525</v>
+        <v>1.39344262295082</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4950819672131148</v>
+        <v>1.481967213114754</v>
       </c>
       <c r="I90" t="n">
-        <v>0.5292307692307693</v>
+        <v>1.501538461538461</v>
       </c>
       <c r="J90" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.587692307692308</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4892307692307692</v>
+        <v>1.572307692307692</v>
       </c>
       <c r="L90" t="n">
-        <v>0.4123076923076923</v>
+        <v>1.544615384615385</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3661538461538462</v>
+        <v>1.538461538461539</v>
       </c>
     </row>
     <row r="91">
